--- a/data/trans_bre/IP43-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 16,24</t>
+          <t>-3,15; 16,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 18,71</t>
+          <t>-1,82; 18,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 148,21</t>
+          <t>-16,03; 138,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 296,78</t>
+          <t>-14,18; 290,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,57</t>
+          <t>-6,29; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,08</t>
+          <t>-3,46; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 11,46</t>
+          <t>-22,85; 10,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 38,86</t>
+          <t>-23,78; 36,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 6,52</t>
+          <t>-7,15; 7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 4,43</t>
+          <t>-5,5; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 38,46</t>
+          <t>-28,86; 43,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 61,51</t>
+          <t>-45,11; 63,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,34</t>
+          <t>-4,01; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,45</t>
+          <t>-2,19; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 15,29</t>
+          <t>-15,74; 15,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 33,63</t>
+          <t>-16,11; 36,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">

--- a/data/trans_bre/IP43-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,4; 17,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 17,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 141,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,82; 286,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 16,74</t>
+          <t>-6,23; 2,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 18,16</t>
+          <t>-2,81; 3,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 138,64</t>
+          <t>-22,42; 12,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 290,28</t>
+          <t>-20,24; 36,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,53</t>
+          <t>-7,98; 6,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,83</t>
+          <t>-5,31; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 10,97</t>
+          <t>-32,86; 38,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 36,51</t>
+          <t>-46,39; 62,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 7,04</t>
+          <t>-4,26; 3,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 4,35</t>
+          <t>-1,78; 3,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 43,57</t>
+          <t>-16,6; 14,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 63,91</t>
+          <t>-14,11; 35,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -912,97 +912,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,39%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 3,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 3,73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 15,08</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 36,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
